--- a/Ressource/DIMA_3.xlsx
+++ b/Ressource/DIMA_3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max_bookpro/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b.boyer9\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{313F3FB0-B5FB-E444-AB4E-D1D101294934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>DETECTER</t>
   </si>
@@ -101,9 +100,6 @@
     <t>TE0112 Effet de simple exposition</t>
   </si>
   <si>
-    <t>TE0113 Illusion de fréquence</t>
-  </si>
-  <si>
     <t>TE0121-Illusion de la fréquence</t>
   </si>
   <si>
@@ -340,12 +336,34 @@
   </si>
   <si>
     <t>TE0333 Effet de primauté</t>
+  </si>
+  <si>
+    <t>TE0411 : biais d'excès de confiance</t>
+  </si>
+  <si>
+    <t>TE0412 : Effet Peltzman (compensation du risque)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TA0041 Valorisation individuelle  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Century Gothic"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Technique qui valorisent le jugement personnel et la confiance en soi. </t>
+    </r>
+  </si>
+  <si>
+    <t>TE0413 : Supériorité illusoire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -455,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -504,12 +522,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
@@ -535,53 +630,101 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -897,301 +1040,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="49.5" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="29.83203125" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.08203125" customWidth="1"/>
+    <col min="7" max="7" width="40.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
+      <c r="G2" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="29"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="4" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="1" t="s">
+      <c r="G4" s="28"/>
+      <c r="H4" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="4" t="s">
+      <c r="C5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="30"/>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="29"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="29"/>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="C11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35"/>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8" ht="91" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="35"/>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="D14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="40"/>
+      <c r="B15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="23" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+    <row r="17" spans="1:8" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="25">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E8:E10"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="E11:E13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E8:E10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -1199,7 +1348,8 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="H11:H13"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="E5:E7"/>
@@ -1207,37 +1357,40 @@
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="G11:G13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://en.wikipedia.org/wiki/Frequency_illusion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://en.wikipedia.org/wiki/Context_effect" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B8" r:id="rId3" display="https://en.wikipedia.org/wiki/Bizarreness_effect" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B10" r:id="rId4" display="https://en.wikipedia.org/wiki/Negativity_bias" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B11" r:id="rId5" display="https://en.wikipedia.org/wiki/Von_Restorff_effect" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B12" r:id="rId6" display="https://en.wikipedia.org/wiki/Anchoring_effect" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B13" r:id="rId7" display="https://en.wikipedia.org/wiki/Contrast_effect" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D8:D10" r:id="rId8" display="TE0231-Biais d'homogénéité" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D2" r:id="rId9" display="T0211: biais de corrélation illusoire" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D3" r:id="rId10" display="T0212: Biais de la preuve anecdotique" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D4" r:id="rId11" display="T0213: Illusion des séries" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D12" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F2" r:id="rId16" location="Source_confusion" xr:uid="{BDBBCC27-D311-BF45-8627-DD8E9F1534C3}"/>
-    <hyperlink ref="F3" r:id="rId17" xr:uid="{C4E20363-258A-824B-A052-8CF3BE37D768}"/>
-    <hyperlink ref="F4" r:id="rId18" xr:uid="{336D9C3E-D8E7-F74D-81BC-ED78DC5A0365}"/>
-    <hyperlink ref="F5" r:id="rId19" xr:uid="{7D30ED85-88FE-4F47-969F-C50A940E282C}"/>
-    <hyperlink ref="F7" r:id="rId20" xr:uid="{10F47A83-955A-BC49-B598-8DA327612CE8}"/>
-    <hyperlink ref="D14" r:id="rId21" xr:uid="{009637CD-7057-6F42-9CAD-E49D2E54096A}"/>
-    <hyperlink ref="F8" r:id="rId22" display="TE0261 Effet de récence" xr:uid="{CD51CDF9-D046-8448-BB01-EBE8500AD2DD}"/>
-    <hyperlink ref="F10" r:id="rId23" xr:uid="{5AE44BC2-AC4A-8641-AD4E-EA2AD9BD6F0D}"/>
-    <hyperlink ref="D16" r:id="rId24" xr:uid="{5C515F78-6F5F-4A4D-B910-AA40CFDE274A}"/>
-    <hyperlink ref="F6" r:id="rId25" display="TE0323 : effacement négatif" xr:uid="{BEE5B43C-36EB-7D42-8D7C-0D95C922AD83}"/>
-    <hyperlink ref="F9" r:id="rId26" xr:uid="{88EAE147-D047-3449-831A-39FC86D4B3F6}"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://en.wikipedia.org/wiki/Frequency_illusion"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://en.wikipedia.org/wiki/Context_effect"/>
+    <hyperlink ref="B8" r:id="rId3" display="https://en.wikipedia.org/wiki/Bizarreness_effect"/>
+    <hyperlink ref="B10" r:id="rId4" display="https://en.wikipedia.org/wiki/Negativity_bias"/>
+    <hyperlink ref="B11" r:id="rId5" display="https://en.wikipedia.org/wiki/Von_Restorff_effect"/>
+    <hyperlink ref="B12" r:id="rId6" display="https://en.wikipedia.org/wiki/Anchoring_effect"/>
+    <hyperlink ref="B13" r:id="rId7" display="https://en.wikipedia.org/wiki/Contrast_effect"/>
+    <hyperlink ref="D8:D10" r:id="rId8" display="TE0231-Biais d'homogénéité"/>
+    <hyperlink ref="D2" r:id="rId9" display="T0211: biais de corrélation illusoire"/>
+    <hyperlink ref="D3" r:id="rId10" display="T0212: Biais de la preuve anecdotique"/>
+    <hyperlink ref="D4" r:id="rId11" display="T0213: Illusion des séries"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="D12" r:id="rId14"/>
+    <hyperlink ref="D10" r:id="rId15"/>
+    <hyperlink ref="F2" r:id="rId16" location="Source_confusion"/>
+    <hyperlink ref="F3" r:id="rId17"/>
+    <hyperlink ref="F4" r:id="rId18"/>
+    <hyperlink ref="F5" r:id="rId19"/>
+    <hyperlink ref="F7" r:id="rId20"/>
+    <hyperlink ref="D14" r:id="rId21"/>
+    <hyperlink ref="F8" r:id="rId22" display="TE0261 Effet de récence"/>
+    <hyperlink ref="F10" r:id="rId23"/>
+    <hyperlink ref="D16" r:id="rId24"/>
+    <hyperlink ref="F6" r:id="rId25" display="TE0323 : effacement négatif"/>
+    <hyperlink ref="F9" r:id="rId26"/>
+    <hyperlink ref="H2" r:id="rId27"/>
+    <hyperlink ref="H3" r:id="rId28" location="Peltzman_effect"/>
+    <hyperlink ref="H4" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId30"/>
 </worksheet>
 </file>